--- a/tu_archivo_excel_flexxus.xlsx
+++ b/tu_archivo_excel_flexxus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wolchuk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C9B0F-9D51-46C7-A693-E64C327972B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2C0EE-9371-4B75-932D-E3ECEE0E95CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="1440" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +395,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50001</v>
+        <v>50156</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -409,7 +409,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50002</v>
+        <v>50201</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
